--- a/Работа/2. Отчеты/1. Ежедневный/4. Простои и сервис/2022/09. Сентябрь/Исходники из 1С_Сентябрь 2022/3. % потерянной выручки (1С).xlsx
+++ b/Работа/2. Отчеты/1. Ежедневный/4. Простои и сервис/2022/09. Сентябрь/Исходники из 1С_Сентябрь 2022/3. % потерянной выручки (1С).xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25726"/>
   <workbookPr filterPrivacy="1" codeName="ЭтаКнига" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{142F90D9-9FD7-4CE8-9B89-D9AE2E603381}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" activeTab="5"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Установочные" sheetId="97" r:id="rId1"/>
@@ -13,13 +14,27 @@
     <sheet name="05.09" sheetId="121" r:id="rId4"/>
     <sheet name="06.09" sheetId="122" r:id="rId5"/>
     <sheet name="07.09" sheetId="123" r:id="rId6"/>
+    <sheet name="08.09" sheetId="124" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="39">
   <si>
     <t>ФС</t>
   </si>
@@ -132,16 +147,16 @@
     <t>06.09.2022</t>
   </si>
   <si>
-    <t>07.09</t>
+    <t>07.09.2022</t>
   </si>
   <si>
-    <t>07.09.2022</t>
+    <t>08.09</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="#,##0.0"/>
@@ -518,6 +533,63 @@
     <xf numFmtId="164" fontId="3" fillId="4" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="3" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="3" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="3" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="3" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="3" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="3" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="3" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="4" borderId="3" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="4" fontId="3" fillId="4" borderId="3" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="4" borderId="3" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="4" borderId="3" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="4" borderId="3" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="4" borderId="3" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="4" borderId="3" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -554,86 +626,32 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="3" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="3" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="3" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="3" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="3" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="3" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="3" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="4" borderId="3" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="4" fontId="3" fillId="4" borderId="3" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="4" borderId="3" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="4" borderId="3" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="4" borderId="3" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="4" borderId="3" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="4" borderId="3" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
-    <cellStyle name="Обычный_01.09" xfId="1"/>
-    <cellStyle name="Обычный_02.09" xfId="2"/>
-    <cellStyle name="Обычный_05.09" xfId="3"/>
-    <cellStyle name="Обычный_06.09" xfId="4"/>
-    <cellStyle name="Обычный_07.09" xfId="5"/>
+    <cellStyle name="Обычный_01.09" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Обычный_02.09" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Обычный_05.09" xfId="3" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="Обычный_06.09" xfId="4" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="Обычный_07.09" xfId="5" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -682,7 +700,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -715,9 +733,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -750,6 +785,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -925,7 +977,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Лист1">
     <tabColor theme="8"/>
   </sheetPr>
@@ -949,7 +1001,7 @@
         <v>3</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C1">
         <f t="shared" ref="C1:C14" si="0">LEN(D1)</f>
@@ -1176,7 +1228,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1186,15 +1238,15 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="84" t="s">
+      <c r="A1" s="103" t="s">
         <v>5</v>
       </c>
       <c r="B1" s="9"/>
       <c r="C1" s="9"/>
-      <c r="D1" s="86" t="s">
+      <c r="D1" s="105" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="86"/>
+      <c r="E1" s="105"/>
       <c r="F1" s="9"/>
       <c r="G1" s="9"/>
       <c r="H1" s="9"/>
@@ -1204,7 +1256,7 @@
       <c r="L1" s="9"/>
     </row>
     <row r="2" spans="1:12" ht="140.25" x14ac:dyDescent="0.25">
-      <c r="A2" s="85"/>
+      <c r="A2" s="104"/>
       <c r="B2" s="10" t="s">
         <v>7</v>
       </c>
@@ -1789,7 +1841,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:N17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1799,19 +1851,19 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="87" t="s">
+      <c r="A1" s="106" t="s">
         <v>5</v>
       </c>
       <c r="B1" s="26"/>
       <c r="C1" s="26"/>
-      <c r="D1" s="89" t="s">
+      <c r="D1" s="108" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="89"/>
-      <c r="F1" s="89" t="s">
+      <c r="E1" s="108"/>
+      <c r="F1" s="108" t="s">
         <v>32</v>
       </c>
-      <c r="G1" s="89"/>
+      <c r="G1" s="108"/>
       <c r="H1" s="26"/>
       <c r="I1" s="26"/>
       <c r="J1" s="26"/>
@@ -1821,7 +1873,7 @@
       <c r="N1" s="26"/>
     </row>
     <row r="2" spans="1:14" ht="140.25" x14ac:dyDescent="0.25">
-      <c r="A2" s="88"/>
+      <c r="A2" s="107"/>
       <c r="B2" s="27" t="s">
         <v>7</v>
       </c>
@@ -2503,7 +2555,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:T16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2513,31 +2565,31 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="91" t="s">
+      <c r="A1" s="110" t="s">
         <v>5</v>
       </c>
       <c r="B1" s="43"/>
       <c r="C1" s="43"/>
-      <c r="D1" s="90" t="s">
+      <c r="D1" s="109" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="90"/>
-      <c r="F1" s="90" t="s">
+      <c r="E1" s="109"/>
+      <c r="F1" s="109" t="s">
         <v>32</v>
       </c>
-      <c r="G1" s="90"/>
-      <c r="H1" s="90" t="s">
+      <c r="G1" s="109"/>
+      <c r="H1" s="109" t="s">
         <v>33</v>
       </c>
-      <c r="I1" s="90"/>
-      <c r="J1" s="90" t="s">
+      <c r="I1" s="109"/>
+      <c r="J1" s="109" t="s">
         <v>34</v>
       </c>
-      <c r="K1" s="90"/>
-      <c r="L1" s="90" t="s">
+      <c r="K1" s="109"/>
+      <c r="L1" s="109" t="s">
         <v>35</v>
       </c>
-      <c r="M1" s="90"/>
+      <c r="M1" s="109"/>
       <c r="N1" s="43"/>
       <c r="O1" s="43"/>
       <c r="P1" s="43"/>
@@ -2547,7 +2599,7 @@
       <c r="T1" s="43"/>
     </row>
     <row r="2" spans="1:20" ht="140.25" x14ac:dyDescent="0.25">
-      <c r="A2" s="92"/>
+      <c r="A2" s="111"/>
       <c r="B2" s="44" t="s">
         <v>7</v>
       </c>
@@ -3460,7 +3512,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:V16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3470,35 +3522,35 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A1" s="94" t="s">
+      <c r="A1" s="113" t="s">
         <v>5</v>
       </c>
       <c r="B1" s="65"/>
       <c r="C1" s="65"/>
-      <c r="D1" s="93" t="s">
+      <c r="D1" s="112" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="93"/>
-      <c r="F1" s="93" t="s">
+      <c r="E1" s="112"/>
+      <c r="F1" s="112" t="s">
         <v>32</v>
       </c>
-      <c r="G1" s="93"/>
-      <c r="H1" s="93" t="s">
+      <c r="G1" s="112"/>
+      <c r="H1" s="112" t="s">
         <v>33</v>
       </c>
-      <c r="I1" s="93"/>
-      <c r="J1" s="93" t="s">
+      <c r="I1" s="112"/>
+      <c r="J1" s="112" t="s">
         <v>34</v>
       </c>
-      <c r="K1" s="93"/>
-      <c r="L1" s="93" t="s">
+      <c r="K1" s="112"/>
+      <c r="L1" s="112" t="s">
         <v>35</v>
       </c>
-      <c r="M1" s="93"/>
-      <c r="N1" s="93" t="s">
+      <c r="M1" s="112"/>
+      <c r="N1" s="112" t="s">
         <v>36</v>
       </c>
-      <c r="O1" s="93"/>
+      <c r="O1" s="112"/>
       <c r="P1" s="65"/>
       <c r="Q1" s="65"/>
       <c r="R1" s="65"/>
@@ -3508,7 +3560,7 @@
       <c r="V1" s="65"/>
     </row>
     <row r="2" spans="1:22" ht="140.25" x14ac:dyDescent="0.25">
-      <c r="A2" s="95"/>
+      <c r="A2" s="114"/>
       <c r="B2" s="66" t="s">
         <v>7</v>
       </c>
@@ -4512,7 +4564,1154 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:X16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:X16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A1" s="116" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="84"/>
+      <c r="C1" s="84"/>
+      <c r="D1" s="115" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="115"/>
+      <c r="F1" s="115" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1" s="115"/>
+      <c r="H1" s="115" t="s">
+        <v>33</v>
+      </c>
+      <c r="I1" s="115"/>
+      <c r="J1" s="115" t="s">
+        <v>34</v>
+      </c>
+      <c r="K1" s="115"/>
+      <c r="L1" s="115" t="s">
+        <v>35</v>
+      </c>
+      <c r="M1" s="115"/>
+      <c r="N1" s="115" t="s">
+        <v>36</v>
+      </c>
+      <c r="O1" s="115"/>
+      <c r="P1" s="115" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q1" s="115"/>
+      <c r="R1" s="84"/>
+      <c r="S1" s="84"/>
+      <c r="T1" s="84"/>
+      <c r="U1" s="84"/>
+      <c r="V1" s="84"/>
+      <c r="W1" s="84"/>
+      <c r="X1" s="84"/>
+    </row>
+    <row r="2" spans="1:24" ht="140.25" x14ac:dyDescent="0.25">
+      <c r="A2" s="117"/>
+      <c r="B2" s="85" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="85" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="85" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="86" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="85" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="86" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2" s="85" t="s">
+        <v>9</v>
+      </c>
+      <c r="I2" s="86" t="s">
+        <v>10</v>
+      </c>
+      <c r="J2" s="85" t="s">
+        <v>9</v>
+      </c>
+      <c r="K2" s="86" t="s">
+        <v>10</v>
+      </c>
+      <c r="L2" s="85" t="s">
+        <v>9</v>
+      </c>
+      <c r="M2" s="86" t="s">
+        <v>10</v>
+      </c>
+      <c r="N2" s="85" t="s">
+        <v>9</v>
+      </c>
+      <c r="O2" s="86" t="s">
+        <v>10</v>
+      </c>
+      <c r="P2" s="85" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q2" s="86" t="s">
+        <v>10</v>
+      </c>
+      <c r="R2" s="85" t="s">
+        <v>9</v>
+      </c>
+      <c r="S2" s="85" t="s">
+        <v>11</v>
+      </c>
+      <c r="T2" s="86" t="s">
+        <v>12</v>
+      </c>
+      <c r="U2" s="85" t="s">
+        <v>13</v>
+      </c>
+      <c r="V2" s="85" t="s">
+        <v>14</v>
+      </c>
+      <c r="W2" s="85" t="s">
+        <v>15</v>
+      </c>
+      <c r="X2" s="85" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A3" s="87" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="88">
+        <v>5038174</v>
+      </c>
+      <c r="C3" s="89"/>
+      <c r="D3" s="90">
+        <v>3686</v>
+      </c>
+      <c r="E3" s="91">
+        <v>28</v>
+      </c>
+      <c r="F3" s="90">
+        <v>3824</v>
+      </c>
+      <c r="G3" s="91">
+        <v>29</v>
+      </c>
+      <c r="H3" s="90">
+        <v>1332</v>
+      </c>
+      <c r="I3" s="91">
+        <v>26</v>
+      </c>
+      <c r="J3" s="90">
+        <v>1034</v>
+      </c>
+      <c r="K3" s="91">
+        <v>23</v>
+      </c>
+      <c r="L3" s="90">
+        <v>3700</v>
+      </c>
+      <c r="M3" s="91">
+        <v>31</v>
+      </c>
+      <c r="N3" s="90">
+        <v>3972</v>
+      </c>
+      <c r="O3" s="91">
+        <v>25</v>
+      </c>
+      <c r="P3" s="90">
+        <v>3898</v>
+      </c>
+      <c r="Q3" s="91">
+        <v>16</v>
+      </c>
+      <c r="R3" s="90">
+        <v>21446</v>
+      </c>
+      <c r="S3" s="92">
+        <v>475.99</v>
+      </c>
+      <c r="T3" s="91">
+        <v>178</v>
+      </c>
+      <c r="U3" s="88">
+        <v>35158.99</v>
+      </c>
+      <c r="V3" s="93">
+        <v>31</v>
+      </c>
+      <c r="W3" s="90">
+        <v>2262</v>
+      </c>
+      <c r="X3" s="94">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A4" s="87" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="88">
+        <v>11096936</v>
+      </c>
+      <c r="C4" s="89"/>
+      <c r="D4" s="90">
+        <v>7133</v>
+      </c>
+      <c r="E4" s="91">
+        <v>45</v>
+      </c>
+      <c r="F4" s="90">
+        <v>7356</v>
+      </c>
+      <c r="G4" s="91">
+        <v>44</v>
+      </c>
+      <c r="H4" s="90">
+        <v>5156</v>
+      </c>
+      <c r="I4" s="91">
+        <v>52</v>
+      </c>
+      <c r="J4" s="90">
+        <v>3522</v>
+      </c>
+      <c r="K4" s="91">
+        <v>68</v>
+      </c>
+      <c r="L4" s="90">
+        <v>7224</v>
+      </c>
+      <c r="M4" s="91">
+        <v>46</v>
+      </c>
+      <c r="N4" s="90">
+        <v>7310</v>
+      </c>
+      <c r="O4" s="91">
+        <v>52</v>
+      </c>
+      <c r="P4" s="90">
+        <v>7547</v>
+      </c>
+      <c r="Q4" s="91">
+        <v>37</v>
+      </c>
+      <c r="R4" s="90">
+        <v>45248</v>
+      </c>
+      <c r="S4" s="92">
+        <v>613.45000000000005</v>
+      </c>
+      <c r="T4" s="91">
+        <v>344</v>
+      </c>
+      <c r="U4" s="88">
+        <v>80618.62</v>
+      </c>
+      <c r="V4" s="93">
+        <v>31</v>
+      </c>
+      <c r="W4" s="90">
+        <v>4034</v>
+      </c>
+      <c r="X4" s="94">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A5" s="87" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="88">
+        <v>4581785</v>
+      </c>
+      <c r="C5" s="89"/>
+      <c r="D5" s="90">
+        <v>3187</v>
+      </c>
+      <c r="E5" s="91">
+        <v>46</v>
+      </c>
+      <c r="F5" s="90">
+        <v>3513</v>
+      </c>
+      <c r="G5" s="91">
+        <v>36</v>
+      </c>
+      <c r="H5" s="90">
+        <v>1970</v>
+      </c>
+      <c r="I5" s="91">
+        <v>14</v>
+      </c>
+      <c r="J5" s="90">
+        <v>1504</v>
+      </c>
+      <c r="K5" s="91">
+        <v>20</v>
+      </c>
+      <c r="L5" s="90">
+        <v>3655</v>
+      </c>
+      <c r="M5" s="91">
+        <v>37</v>
+      </c>
+      <c r="N5" s="90">
+        <v>3808</v>
+      </c>
+      <c r="O5" s="91">
+        <v>42</v>
+      </c>
+      <c r="P5" s="90">
+        <v>3819</v>
+      </c>
+      <c r="Q5" s="91">
+        <v>29</v>
+      </c>
+      <c r="R5" s="90">
+        <v>21456</v>
+      </c>
+      <c r="S5" s="92">
+        <v>483.54</v>
+      </c>
+      <c r="T5" s="91">
+        <v>224</v>
+      </c>
+      <c r="U5" s="88">
+        <v>46433.46</v>
+      </c>
+      <c r="V5" s="93">
+        <v>23</v>
+      </c>
+      <c r="W5" s="90">
+        <v>2092</v>
+      </c>
+      <c r="X5" s="95">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A6" s="87" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="88">
+        <v>14389439.800000001</v>
+      </c>
+      <c r="C6" s="89"/>
+      <c r="D6" s="90">
+        <v>5318</v>
+      </c>
+      <c r="E6" s="91">
+        <v>29</v>
+      </c>
+      <c r="F6" s="90">
+        <v>5573</v>
+      </c>
+      <c r="G6" s="91">
+        <v>33</v>
+      </c>
+      <c r="H6" s="90">
+        <v>2312</v>
+      </c>
+      <c r="I6" s="91">
+        <v>47</v>
+      </c>
+      <c r="J6" s="90">
+        <v>1713</v>
+      </c>
+      <c r="K6" s="91">
+        <v>72</v>
+      </c>
+      <c r="L6" s="90">
+        <v>5627</v>
+      </c>
+      <c r="M6" s="91">
+        <v>36</v>
+      </c>
+      <c r="N6" s="90">
+        <v>6155</v>
+      </c>
+      <c r="O6" s="91">
+        <v>36</v>
+      </c>
+      <c r="P6" s="90">
+        <v>6006</v>
+      </c>
+      <c r="Q6" s="91">
+        <v>36</v>
+      </c>
+      <c r="R6" s="90">
+        <v>32704</v>
+      </c>
+      <c r="S6" s="92">
+        <v>902.92</v>
+      </c>
+      <c r="T6" s="91">
+        <v>289</v>
+      </c>
+      <c r="U6" s="88">
+        <v>141505.99</v>
+      </c>
+      <c r="V6" s="93">
+        <v>31</v>
+      </c>
+      <c r="W6" s="90">
+        <v>3066</v>
+      </c>
+      <c r="X6" s="94">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A7" s="87" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="88">
+        <v>3671460</v>
+      </c>
+      <c r="C7" s="89"/>
+      <c r="D7" s="90">
+        <v>2098</v>
+      </c>
+      <c r="E7" s="91">
+        <v>19</v>
+      </c>
+      <c r="F7" s="90">
+        <v>2203</v>
+      </c>
+      <c r="G7" s="91">
+        <v>13</v>
+      </c>
+      <c r="H7" s="90">
+        <v>1725</v>
+      </c>
+      <c r="I7" s="91">
+        <v>17</v>
+      </c>
+      <c r="J7" s="90">
+        <v>1403</v>
+      </c>
+      <c r="K7" s="91">
+        <v>22</v>
+      </c>
+      <c r="L7" s="90">
+        <v>2293</v>
+      </c>
+      <c r="M7" s="91">
+        <v>9</v>
+      </c>
+      <c r="N7" s="90">
+        <v>2440</v>
+      </c>
+      <c r="O7" s="91">
+        <v>12</v>
+      </c>
+      <c r="P7" s="90">
+        <v>2640</v>
+      </c>
+      <c r="Q7" s="91">
+        <v>18</v>
+      </c>
+      <c r="R7" s="90">
+        <v>14802</v>
+      </c>
+      <c r="S7" s="92">
+        <v>489.42</v>
+      </c>
+      <c r="T7" s="91">
+        <v>110</v>
+      </c>
+      <c r="U7" s="88">
+        <v>25524.49</v>
+      </c>
+      <c r="V7" s="93">
+        <v>31</v>
+      </c>
+      <c r="W7" s="90">
+        <v>1669</v>
+      </c>
+      <c r="X7" s="94">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A8" s="87" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="88">
+        <v>4922151</v>
+      </c>
+      <c r="C8" s="89"/>
+      <c r="D8" s="90">
+        <v>2847</v>
+      </c>
+      <c r="E8" s="91">
+        <v>21</v>
+      </c>
+      <c r="F8" s="90">
+        <v>2736</v>
+      </c>
+      <c r="G8" s="91">
+        <v>24</v>
+      </c>
+      <c r="H8" s="90">
+        <v>1691</v>
+      </c>
+      <c r="I8" s="91">
+        <v>27</v>
+      </c>
+      <c r="J8" s="90">
+        <v>1365</v>
+      </c>
+      <c r="K8" s="91">
+        <v>34</v>
+      </c>
+      <c r="L8" s="90">
+        <v>3086</v>
+      </c>
+      <c r="M8" s="91">
+        <v>26</v>
+      </c>
+      <c r="N8" s="90">
+        <v>3190</v>
+      </c>
+      <c r="O8" s="91">
+        <v>33</v>
+      </c>
+      <c r="P8" s="90">
+        <v>3417</v>
+      </c>
+      <c r="Q8" s="91">
+        <v>27</v>
+      </c>
+      <c r="R8" s="90">
+        <v>18332</v>
+      </c>
+      <c r="S8" s="92">
+        <v>467.1</v>
+      </c>
+      <c r="T8" s="91">
+        <v>192</v>
+      </c>
+      <c r="U8" s="88">
+        <v>53503.74</v>
+      </c>
+      <c r="V8" s="93">
+        <v>31</v>
+      </c>
+      <c r="W8" s="90">
+        <v>2045</v>
+      </c>
+      <c r="X8" s="95">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A9" s="87" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="88">
+        <v>5861141</v>
+      </c>
+      <c r="C9" s="89"/>
+      <c r="D9" s="90">
+        <v>4102</v>
+      </c>
+      <c r="E9" s="91">
+        <v>25</v>
+      </c>
+      <c r="F9" s="90">
+        <v>4627</v>
+      </c>
+      <c r="G9" s="91">
+        <v>18</v>
+      </c>
+      <c r="H9" s="90">
+        <v>2756</v>
+      </c>
+      <c r="I9" s="91">
+        <v>40</v>
+      </c>
+      <c r="J9" s="90">
+        <v>2192</v>
+      </c>
+      <c r="K9" s="91">
+        <v>48</v>
+      </c>
+      <c r="L9" s="90">
+        <v>4794</v>
+      </c>
+      <c r="M9" s="91">
+        <v>21</v>
+      </c>
+      <c r="N9" s="90">
+        <v>5016</v>
+      </c>
+      <c r="O9" s="91">
+        <v>19</v>
+      </c>
+      <c r="P9" s="90">
+        <v>4878</v>
+      </c>
+      <c r="Q9" s="91">
+        <v>16</v>
+      </c>
+      <c r="R9" s="90">
+        <v>28365</v>
+      </c>
+      <c r="S9" s="92">
+        <v>511.89</v>
+      </c>
+      <c r="T9" s="91">
+        <v>187</v>
+      </c>
+      <c r="U9" s="88">
+        <v>48756.87</v>
+      </c>
+      <c r="V9" s="93">
+        <v>27</v>
+      </c>
+      <c r="W9" s="90">
+        <v>2582</v>
+      </c>
+      <c r="X9" s="94">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A10" s="87" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" s="88">
+        <v>4599446</v>
+      </c>
+      <c r="C10" s="89"/>
+      <c r="D10" s="90">
+        <v>2668</v>
+      </c>
+      <c r="E10" s="91">
+        <v>40</v>
+      </c>
+      <c r="F10" s="90">
+        <v>3380</v>
+      </c>
+      <c r="G10" s="91">
+        <v>22</v>
+      </c>
+      <c r="H10" s="90">
+        <v>1884</v>
+      </c>
+      <c r="I10" s="91">
+        <v>15</v>
+      </c>
+      <c r="J10" s="90">
+        <v>1359</v>
+      </c>
+      <c r="K10" s="91">
+        <v>20</v>
+      </c>
+      <c r="L10" s="90">
+        <v>3656</v>
+      </c>
+      <c r="M10" s="91">
+        <v>33</v>
+      </c>
+      <c r="N10" s="90">
+        <v>3338</v>
+      </c>
+      <c r="O10" s="91">
+        <v>31</v>
+      </c>
+      <c r="P10" s="90">
+        <v>3440</v>
+      </c>
+      <c r="Q10" s="91">
+        <v>21</v>
+      </c>
+      <c r="R10" s="90">
+        <v>19725</v>
+      </c>
+      <c r="S10" s="92">
+        <v>494.77</v>
+      </c>
+      <c r="T10" s="91">
+        <v>182</v>
+      </c>
+      <c r="U10" s="88">
+        <v>45127.59</v>
+      </c>
+      <c r="V10" s="93">
+        <v>23</v>
+      </c>
+      <c r="W10" s="90">
+        <v>2083</v>
+      </c>
+      <c r="X10" s="94">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A11" s="87" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" s="88">
+        <v>3075229</v>
+      </c>
+      <c r="C11" s="89"/>
+      <c r="D11" s="90">
+        <v>2060</v>
+      </c>
+      <c r="E11" s="91">
+        <v>10</v>
+      </c>
+      <c r="F11" s="90">
+        <v>2032</v>
+      </c>
+      <c r="G11" s="91">
+        <v>12</v>
+      </c>
+      <c r="H11" s="90">
+        <v>1826</v>
+      </c>
+      <c r="I11" s="91">
+        <v>24</v>
+      </c>
+      <c r="J11" s="90">
+        <v>1307</v>
+      </c>
+      <c r="K11" s="91">
+        <v>28</v>
+      </c>
+      <c r="L11" s="90">
+        <v>2392</v>
+      </c>
+      <c r="M11" s="91">
+        <v>12</v>
+      </c>
+      <c r="N11" s="90">
+        <v>2392</v>
+      </c>
+      <c r="O11" s="91">
+        <v>12</v>
+      </c>
+      <c r="P11" s="90">
+        <v>2492</v>
+      </c>
+      <c r="Q11" s="91">
+        <v>8</v>
+      </c>
+      <c r="R11" s="90">
+        <v>14501</v>
+      </c>
+      <c r="S11" s="92">
+        <v>463.88</v>
+      </c>
+      <c r="T11" s="91">
+        <v>106</v>
+      </c>
+      <c r="U11" s="88">
+        <v>32427.88</v>
+      </c>
+      <c r="V11" s="93">
+        <v>31</v>
+      </c>
+      <c r="W11" s="90">
+        <v>1409</v>
+      </c>
+      <c r="X11" s="95">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A12" s="87" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" s="88">
+        <v>2741293</v>
+      </c>
+      <c r="C12" s="89"/>
+      <c r="D12" s="90">
+        <v>1909</v>
+      </c>
+      <c r="E12" s="91">
+        <v>16</v>
+      </c>
+      <c r="F12" s="90">
+        <v>2036</v>
+      </c>
+      <c r="G12" s="91">
+        <v>12</v>
+      </c>
+      <c r="H12" s="90">
+        <v>1178</v>
+      </c>
+      <c r="I12" s="91">
+        <v>13</v>
+      </c>
+      <c r="J12" s="93">
+        <v>983</v>
+      </c>
+      <c r="K12" s="91">
+        <v>11</v>
+      </c>
+      <c r="L12" s="90">
+        <v>2040</v>
+      </c>
+      <c r="M12" s="91">
+        <v>18</v>
+      </c>
+      <c r="N12" s="90">
+        <v>2041</v>
+      </c>
+      <c r="O12" s="91">
+        <v>14</v>
+      </c>
+      <c r="P12" s="90">
+        <v>2169</v>
+      </c>
+      <c r="Q12" s="91">
+        <v>14</v>
+      </c>
+      <c r="R12" s="90">
+        <v>12356</v>
+      </c>
+      <c r="S12" s="92">
+        <v>541.38</v>
+      </c>
+      <c r="T12" s="91">
+        <v>98</v>
+      </c>
+      <c r="U12" s="88">
+        <v>33141.589999999997</v>
+      </c>
+      <c r="V12" s="93">
+        <v>23</v>
+      </c>
+      <c r="W12" s="90">
+        <v>1126</v>
+      </c>
+      <c r="X12" s="95">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A13" s="87" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13" s="88">
+        <v>3522129</v>
+      </c>
+      <c r="C13" s="89"/>
+      <c r="D13" s="90">
+        <v>2470</v>
+      </c>
+      <c r="E13" s="91">
+        <v>25</v>
+      </c>
+      <c r="F13" s="90">
+        <v>2699</v>
+      </c>
+      <c r="G13" s="91">
+        <v>28</v>
+      </c>
+      <c r="H13" s="90">
+        <v>1432</v>
+      </c>
+      <c r="I13" s="91">
+        <v>30</v>
+      </c>
+      <c r="J13" s="90">
+        <v>1106</v>
+      </c>
+      <c r="K13" s="91">
+        <v>32</v>
+      </c>
+      <c r="L13" s="90">
+        <v>2346</v>
+      </c>
+      <c r="M13" s="91">
+        <v>34</v>
+      </c>
+      <c r="N13" s="90">
+        <v>2477</v>
+      </c>
+      <c r="O13" s="91">
+        <v>27</v>
+      </c>
+      <c r="P13" s="90">
+        <v>2338</v>
+      </c>
+      <c r="Q13" s="91">
+        <v>28</v>
+      </c>
+      <c r="R13" s="90">
+        <v>14868</v>
+      </c>
+      <c r="S13" s="92">
+        <v>461.58</v>
+      </c>
+      <c r="T13" s="91">
+        <v>204</v>
+      </c>
+      <c r="U13" s="88">
+        <v>49692.12</v>
+      </c>
+      <c r="V13" s="93">
+        <v>31</v>
+      </c>
+      <c r="W13" s="90">
+        <v>1724</v>
+      </c>
+      <c r="X13" s="95">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A14" s="87" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" s="88">
+        <v>5322536</v>
+      </c>
+      <c r="C14" s="89"/>
+      <c r="D14" s="90">
+        <v>2802</v>
+      </c>
+      <c r="E14" s="91">
+        <v>29</v>
+      </c>
+      <c r="F14" s="90">
+        <v>2924</v>
+      </c>
+      <c r="G14" s="91">
+        <v>39</v>
+      </c>
+      <c r="H14" s="90">
+        <v>1691</v>
+      </c>
+      <c r="I14" s="91">
+        <v>38</v>
+      </c>
+      <c r="J14" s="90">
+        <v>1440</v>
+      </c>
+      <c r="K14" s="91">
+        <v>40</v>
+      </c>
+      <c r="L14" s="90">
+        <v>3049</v>
+      </c>
+      <c r="M14" s="91">
+        <v>28</v>
+      </c>
+      <c r="N14" s="90">
+        <v>3244</v>
+      </c>
+      <c r="O14" s="91">
+        <v>32</v>
+      </c>
+      <c r="P14" s="90">
+        <v>3327</v>
+      </c>
+      <c r="Q14" s="91">
+        <v>24</v>
+      </c>
+      <c r="R14" s="90">
+        <v>18477</v>
+      </c>
+      <c r="S14" s="92">
+        <v>546.12</v>
+      </c>
+      <c r="T14" s="91">
+        <v>230</v>
+      </c>
+      <c r="U14" s="88">
+        <v>53697.4</v>
+      </c>
+      <c r="V14" s="93">
+        <v>31</v>
+      </c>
+      <c r="W14" s="90">
+        <v>2193</v>
+      </c>
+      <c r="X14" s="95">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A15" s="87" t="s">
+        <v>30</v>
+      </c>
+      <c r="B15" s="88">
+        <v>4843037.5</v>
+      </c>
+      <c r="C15" s="89"/>
+      <c r="D15" s="90">
+        <v>3462</v>
+      </c>
+      <c r="E15" s="91">
+        <v>44</v>
+      </c>
+      <c r="F15" s="90">
+        <v>3594</v>
+      </c>
+      <c r="G15" s="91">
+        <v>35</v>
+      </c>
+      <c r="H15" s="90">
+        <v>2068</v>
+      </c>
+      <c r="I15" s="91">
+        <v>14</v>
+      </c>
+      <c r="J15" s="90">
+        <v>1658</v>
+      </c>
+      <c r="K15" s="91">
+        <v>17</v>
+      </c>
+      <c r="L15" s="90">
+        <v>3733</v>
+      </c>
+      <c r="M15" s="91">
+        <v>36</v>
+      </c>
+      <c r="N15" s="90">
+        <v>4109</v>
+      </c>
+      <c r="O15" s="91">
+        <v>26</v>
+      </c>
+      <c r="P15" s="90">
+        <v>4014</v>
+      </c>
+      <c r="Q15" s="91">
+        <v>34</v>
+      </c>
+      <c r="R15" s="90">
+        <v>22638</v>
+      </c>
+      <c r="S15" s="92">
+        <v>502.16</v>
+      </c>
+      <c r="T15" s="91">
+        <v>206</v>
+      </c>
+      <c r="U15" s="88">
+        <v>49715.33</v>
+      </c>
+      <c r="V15" s="93">
+        <v>31</v>
+      </c>
+      <c r="W15" s="90">
+        <v>2213</v>
+      </c>
+      <c r="X15" s="95">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A16" s="84" t="s">
+        <v>31</v>
+      </c>
+      <c r="B16" s="96">
+        <v>73664757.299999997</v>
+      </c>
+      <c r="C16" s="97">
+        <v>60820763.640000001</v>
+      </c>
+      <c r="D16" s="98">
+        <v>43742</v>
+      </c>
+      <c r="E16" s="99">
+        <v>377</v>
+      </c>
+      <c r="F16" s="98">
+        <v>46497</v>
+      </c>
+      <c r="G16" s="99">
+        <v>345</v>
+      </c>
+      <c r="H16" s="98">
+        <v>27021</v>
+      </c>
+      <c r="I16" s="99">
+        <v>357</v>
+      </c>
+      <c r="J16" s="98">
+        <v>20586</v>
+      </c>
+      <c r="K16" s="99">
+        <v>435</v>
+      </c>
+      <c r="L16" s="98">
+        <v>47595</v>
+      </c>
+      <c r="M16" s="99">
+        <v>367</v>
+      </c>
+      <c r="N16" s="98">
+        <v>49492</v>
+      </c>
+      <c r="O16" s="99">
+        <v>361</v>
+      </c>
+      <c r="P16" s="98">
+        <v>49985</v>
+      </c>
+      <c r="Q16" s="99">
+        <v>308</v>
+      </c>
+      <c r="R16" s="98">
+        <v>284918</v>
+      </c>
+      <c r="S16" s="84"/>
+      <c r="T16" s="100">
+        <v>2550</v>
+      </c>
+      <c r="U16" s="97">
+        <v>695304.09</v>
+      </c>
+      <c r="V16" s="101">
+        <v>31</v>
+      </c>
+      <c r="W16" s="98">
+        <v>28498</v>
+      </c>
+      <c r="X16" s="102">
+        <v>0.9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="P1:Q1"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="L1:M1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7700398-F09B-4445-8738-057E8FD7AF9E}">
   <dimension ref="A1:X16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -4522,1124 +5721,1124 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A1" s="96" t="s">
+      <c r="A1" s="116" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="97"/>
-      <c r="C1" s="97"/>
-      <c r="D1" s="98" t="s">
+      <c r="B1" s="84"/>
+      <c r="C1" s="84"/>
+      <c r="D1" s="115" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="98"/>
-      <c r="F1" s="98" t="s">
+      <c r="E1" s="115"/>
+      <c r="F1" s="115" t="s">
         <v>32</v>
       </c>
-      <c r="G1" s="98"/>
-      <c r="H1" s="98" t="s">
+      <c r="G1" s="115"/>
+      <c r="H1" s="115" t="s">
         <v>33</v>
       </c>
-      <c r="I1" s="98"/>
-      <c r="J1" s="98" t="s">
+      <c r="I1" s="115"/>
+      <c r="J1" s="115" t="s">
         <v>34</v>
       </c>
-      <c r="K1" s="98"/>
-      <c r="L1" s="98" t="s">
+      <c r="K1" s="115"/>
+      <c r="L1" s="115" t="s">
         <v>35</v>
       </c>
-      <c r="M1" s="98"/>
-      <c r="N1" s="98" t="s">
+      <c r="M1" s="115"/>
+      <c r="N1" s="115" t="s">
         <v>36</v>
       </c>
-      <c r="O1" s="98"/>
-      <c r="P1" s="98" t="s">
+      <c r="O1" s="115"/>
+      <c r="P1" s="115" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q1" s="115"/>
+      <c r="R1" s="84"/>
+      <c r="S1" s="84"/>
+      <c r="T1" s="84"/>
+      <c r="U1" s="84"/>
+      <c r="V1" s="84"/>
+      <c r="W1" s="84"/>
+      <c r="X1" s="84"/>
+    </row>
+    <row r="2" spans="1:24" ht="140.25" x14ac:dyDescent="0.25">
+      <c r="A2" s="117"/>
+      <c r="B2" s="85" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="85" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="85" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="86" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="85" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="86" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2" s="85" t="s">
+        <v>9</v>
+      </c>
+      <c r="I2" s="86" t="s">
+        <v>10</v>
+      </c>
+      <c r="J2" s="85" t="s">
+        <v>9</v>
+      </c>
+      <c r="K2" s="86" t="s">
+        <v>10</v>
+      </c>
+      <c r="L2" s="85" t="s">
+        <v>9</v>
+      </c>
+      <c r="M2" s="86" t="s">
+        <v>10</v>
+      </c>
+      <c r="N2" s="85" t="s">
+        <v>9</v>
+      </c>
+      <c r="O2" s="86" t="s">
+        <v>10</v>
+      </c>
+      <c r="P2" s="85" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q2" s="86" t="s">
+        <v>10</v>
+      </c>
+      <c r="R2" s="85" t="s">
+        <v>9</v>
+      </c>
+      <c r="S2" s="85" t="s">
+        <v>11</v>
+      </c>
+      <c r="T2" s="86" t="s">
+        <v>12</v>
+      </c>
+      <c r="U2" s="85" t="s">
+        <v>13</v>
+      </c>
+      <c r="V2" s="85" t="s">
+        <v>14</v>
+      </c>
+      <c r="W2" s="85" t="s">
+        <v>15</v>
+      </c>
+      <c r="X2" s="85" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A3" s="87" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="88">
+        <v>5038174</v>
+      </c>
+      <c r="C3" s="89"/>
+      <c r="D3" s="90">
+        <v>3686</v>
+      </c>
+      <c r="E3" s="91">
+        <v>28</v>
+      </c>
+      <c r="F3" s="90">
+        <v>3824</v>
+      </c>
+      <c r="G3" s="91">
+        <v>29</v>
+      </c>
+      <c r="H3" s="90">
+        <v>1332</v>
+      </c>
+      <c r="I3" s="91">
+        <v>26</v>
+      </c>
+      <c r="J3" s="90">
+        <v>1034</v>
+      </c>
+      <c r="K3" s="91">
+        <v>23</v>
+      </c>
+      <c r="L3" s="90">
+        <v>3700</v>
+      </c>
+      <c r="M3" s="91">
+        <v>31</v>
+      </c>
+      <c r="N3" s="90">
+        <v>3972</v>
+      </c>
+      <c r="O3" s="91">
+        <v>25</v>
+      </c>
+      <c r="P3" s="90">
+        <v>3898</v>
+      </c>
+      <c r="Q3" s="91">
+        <v>16</v>
+      </c>
+      <c r="R3" s="90">
+        <v>21446</v>
+      </c>
+      <c r="S3" s="92">
+        <v>475.99</v>
+      </c>
+      <c r="T3" s="91">
+        <v>178</v>
+      </c>
+      <c r="U3" s="88">
+        <v>35158.99</v>
+      </c>
+      <c r="V3" s="93">
+        <v>31</v>
+      </c>
+      <c r="W3" s="90">
+        <v>2262</v>
+      </c>
+      <c r="X3" s="94">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A4" s="87" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="88">
+        <v>11096936</v>
+      </c>
+      <c r="C4" s="89"/>
+      <c r="D4" s="90">
+        <v>7133</v>
+      </c>
+      <c r="E4" s="91">
+        <v>45</v>
+      </c>
+      <c r="F4" s="90">
+        <v>7356</v>
+      </c>
+      <c r="G4" s="91">
+        <v>44</v>
+      </c>
+      <c r="H4" s="90">
+        <v>5156</v>
+      </c>
+      <c r="I4" s="91">
+        <v>52</v>
+      </c>
+      <c r="J4" s="90">
+        <v>3522</v>
+      </c>
+      <c r="K4" s="91">
+        <v>68</v>
+      </c>
+      <c r="L4" s="90">
+        <v>7224</v>
+      </c>
+      <c r="M4" s="91">
+        <v>46</v>
+      </c>
+      <c r="N4" s="90">
+        <v>7310</v>
+      </c>
+      <c r="O4" s="91">
+        <v>52</v>
+      </c>
+      <c r="P4" s="90">
+        <v>7547</v>
+      </c>
+      <c r="Q4" s="91">
+        <v>37</v>
+      </c>
+      <c r="R4" s="90">
+        <v>45248</v>
+      </c>
+      <c r="S4" s="92">
+        <v>613.45000000000005</v>
+      </c>
+      <c r="T4" s="91">
+        <v>344</v>
+      </c>
+      <c r="U4" s="88">
+        <v>80618.62</v>
+      </c>
+      <c r="V4" s="93">
+        <v>31</v>
+      </c>
+      <c r="W4" s="90">
+        <v>4034</v>
+      </c>
+      <c r="X4" s="94">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A5" s="87" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="88">
+        <v>4581785</v>
+      </c>
+      <c r="C5" s="89"/>
+      <c r="D5" s="90">
+        <v>3187</v>
+      </c>
+      <c r="E5" s="91">
+        <v>46</v>
+      </c>
+      <c r="F5" s="90">
+        <v>3513</v>
+      </c>
+      <c r="G5" s="91">
+        <v>36</v>
+      </c>
+      <c r="H5" s="90">
+        <v>1970</v>
+      </c>
+      <c r="I5" s="91">
+        <v>14</v>
+      </c>
+      <c r="J5" s="90">
+        <v>1504</v>
+      </c>
+      <c r="K5" s="91">
+        <v>20</v>
+      </c>
+      <c r="L5" s="90">
+        <v>3655</v>
+      </c>
+      <c r="M5" s="91">
+        <v>37</v>
+      </c>
+      <c r="N5" s="90">
+        <v>3808</v>
+      </c>
+      <c r="O5" s="91">
+        <v>42</v>
+      </c>
+      <c r="P5" s="90">
+        <v>3819</v>
+      </c>
+      <c r="Q5" s="91">
+        <v>29</v>
+      </c>
+      <c r="R5" s="90">
+        <v>21456</v>
+      </c>
+      <c r="S5" s="92">
+        <v>483.54</v>
+      </c>
+      <c r="T5" s="91">
+        <v>224</v>
+      </c>
+      <c r="U5" s="88">
+        <v>46433.46</v>
+      </c>
+      <c r="V5" s="93">
+        <v>23</v>
+      </c>
+      <c r="W5" s="90">
+        <v>2092</v>
+      </c>
+      <c r="X5" s="95">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A6" s="87" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="88">
+        <v>14389439.800000001</v>
+      </c>
+      <c r="C6" s="89"/>
+      <c r="D6" s="90">
+        <v>5318</v>
+      </c>
+      <c r="E6" s="91">
+        <v>29</v>
+      </c>
+      <c r="F6" s="90">
+        <v>5573</v>
+      </c>
+      <c r="G6" s="91">
+        <v>33</v>
+      </c>
+      <c r="H6" s="90">
+        <v>2312</v>
+      </c>
+      <c r="I6" s="91">
+        <v>47</v>
+      </c>
+      <c r="J6" s="90">
+        <v>1713</v>
+      </c>
+      <c r="K6" s="91">
+        <v>72</v>
+      </c>
+      <c r="L6" s="90">
+        <v>5627</v>
+      </c>
+      <c r="M6" s="91">
+        <v>36</v>
+      </c>
+      <c r="N6" s="90">
+        <v>6155</v>
+      </c>
+      <c r="O6" s="91">
+        <v>36</v>
+      </c>
+      <c r="P6" s="90">
+        <v>6006</v>
+      </c>
+      <c r="Q6" s="91">
+        <v>36</v>
+      </c>
+      <c r="R6" s="90">
+        <v>32704</v>
+      </c>
+      <c r="S6" s="92">
+        <v>902.92</v>
+      </c>
+      <c r="T6" s="91">
+        <v>289</v>
+      </c>
+      <c r="U6" s="88">
+        <v>141505.99</v>
+      </c>
+      <c r="V6" s="93">
+        <v>31</v>
+      </c>
+      <c r="W6" s="90">
+        <v>3066</v>
+      </c>
+      <c r="X6" s="94">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A7" s="87" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="88">
+        <v>3671460</v>
+      </c>
+      <c r="C7" s="89"/>
+      <c r="D7" s="90">
+        <v>2098</v>
+      </c>
+      <c r="E7" s="91">
+        <v>19</v>
+      </c>
+      <c r="F7" s="90">
+        <v>2203</v>
+      </c>
+      <c r="G7" s="91">
+        <v>13</v>
+      </c>
+      <c r="H7" s="90">
+        <v>1725</v>
+      </c>
+      <c r="I7" s="91">
+        <v>17</v>
+      </c>
+      <c r="J7" s="90">
+        <v>1403</v>
+      </c>
+      <c r="K7" s="91">
+        <v>22</v>
+      </c>
+      <c r="L7" s="90">
+        <v>2293</v>
+      </c>
+      <c r="M7" s="91">
+        <v>9</v>
+      </c>
+      <c r="N7" s="90">
+        <v>2440</v>
+      </c>
+      <c r="O7" s="91">
+        <v>12</v>
+      </c>
+      <c r="P7" s="90">
+        <v>2640</v>
+      </c>
+      <c r="Q7" s="91">
+        <v>18</v>
+      </c>
+      <c r="R7" s="90">
+        <v>14802</v>
+      </c>
+      <c r="S7" s="92">
+        <v>489.42</v>
+      </c>
+      <c r="T7" s="91">
+        <v>110</v>
+      </c>
+      <c r="U7" s="88">
+        <v>25524.49</v>
+      </c>
+      <c r="V7" s="93">
+        <v>31</v>
+      </c>
+      <c r="W7" s="90">
+        <v>1669</v>
+      </c>
+      <c r="X7" s="94">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A8" s="87" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="88">
+        <v>4922151</v>
+      </c>
+      <c r="C8" s="89"/>
+      <c r="D8" s="90">
+        <v>2847</v>
+      </c>
+      <c r="E8" s="91">
+        <v>21</v>
+      </c>
+      <c r="F8" s="90">
+        <v>2736</v>
+      </c>
+      <c r="G8" s="91">
+        <v>24</v>
+      </c>
+      <c r="H8" s="90">
+        <v>1691</v>
+      </c>
+      <c r="I8" s="91">
+        <v>27</v>
+      </c>
+      <c r="J8" s="90">
+        <v>1365</v>
+      </c>
+      <c r="K8" s="91">
+        <v>34</v>
+      </c>
+      <c r="L8" s="90">
+        <v>3086</v>
+      </c>
+      <c r="M8" s="91">
+        <v>26</v>
+      </c>
+      <c r="N8" s="90">
+        <v>3190</v>
+      </c>
+      <c r="O8" s="91">
+        <v>33</v>
+      </c>
+      <c r="P8" s="90">
+        <v>3417</v>
+      </c>
+      <c r="Q8" s="91">
+        <v>27</v>
+      </c>
+      <c r="R8" s="90">
+        <v>18332</v>
+      </c>
+      <c r="S8" s="92">
+        <v>467.1</v>
+      </c>
+      <c r="T8" s="91">
+        <v>192</v>
+      </c>
+      <c r="U8" s="88">
+        <v>53503.74</v>
+      </c>
+      <c r="V8" s="93">
+        <v>31</v>
+      </c>
+      <c r="W8" s="90">
+        <v>2045</v>
+      </c>
+      <c r="X8" s="95">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A9" s="87" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="88">
+        <v>5861141</v>
+      </c>
+      <c r="C9" s="89"/>
+      <c r="D9" s="90">
+        <v>4102</v>
+      </c>
+      <c r="E9" s="91">
+        <v>25</v>
+      </c>
+      <c r="F9" s="90">
+        <v>4627</v>
+      </c>
+      <c r="G9" s="91">
+        <v>18</v>
+      </c>
+      <c r="H9" s="90">
+        <v>2756</v>
+      </c>
+      <c r="I9" s="91">
+        <v>40</v>
+      </c>
+      <c r="J9" s="90">
+        <v>2192</v>
+      </c>
+      <c r="K9" s="91">
+        <v>48</v>
+      </c>
+      <c r="L9" s="90">
+        <v>4794</v>
+      </c>
+      <c r="M9" s="91">
+        <v>21</v>
+      </c>
+      <c r="N9" s="90">
+        <v>5016</v>
+      </c>
+      <c r="O9" s="91">
+        <v>19</v>
+      </c>
+      <c r="P9" s="90">
+        <v>4878</v>
+      </c>
+      <c r="Q9" s="91">
+        <v>16</v>
+      </c>
+      <c r="R9" s="90">
+        <v>28365</v>
+      </c>
+      <c r="S9" s="92">
+        <v>511.89</v>
+      </c>
+      <c r="T9" s="91">
+        <v>187</v>
+      </c>
+      <c r="U9" s="88">
+        <v>48756.87</v>
+      </c>
+      <c r="V9" s="93">
+        <v>27</v>
+      </c>
+      <c r="W9" s="90">
+        <v>2582</v>
+      </c>
+      <c r="X9" s="94">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A10" s="87" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" s="88">
+        <v>4599446</v>
+      </c>
+      <c r="C10" s="89"/>
+      <c r="D10" s="90">
+        <v>2668</v>
+      </c>
+      <c r="E10" s="91">
+        <v>40</v>
+      </c>
+      <c r="F10" s="90">
+        <v>3380</v>
+      </c>
+      <c r="G10" s="91">
+        <v>22</v>
+      </c>
+      <c r="H10" s="90">
+        <v>1884</v>
+      </c>
+      <c r="I10" s="91">
+        <v>15</v>
+      </c>
+      <c r="J10" s="90">
+        <v>1359</v>
+      </c>
+      <c r="K10" s="91">
+        <v>20</v>
+      </c>
+      <c r="L10" s="90">
+        <v>3656</v>
+      </c>
+      <c r="M10" s="91">
+        <v>33</v>
+      </c>
+      <c r="N10" s="90">
+        <v>3338</v>
+      </c>
+      <c r="O10" s="91">
+        <v>31</v>
+      </c>
+      <c r="P10" s="90">
+        <v>3440</v>
+      </c>
+      <c r="Q10" s="91">
+        <v>21</v>
+      </c>
+      <c r="R10" s="90">
+        <v>19725</v>
+      </c>
+      <c r="S10" s="92">
+        <v>494.77</v>
+      </c>
+      <c r="T10" s="91">
+        <v>182</v>
+      </c>
+      <c r="U10" s="88">
+        <v>45127.59</v>
+      </c>
+      <c r="V10" s="93">
+        <v>23</v>
+      </c>
+      <c r="W10" s="90">
+        <v>2083</v>
+      </c>
+      <c r="X10" s="94">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A11" s="87" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" s="88">
+        <v>3075229</v>
+      </c>
+      <c r="C11" s="89"/>
+      <c r="D11" s="90">
+        <v>2060</v>
+      </c>
+      <c r="E11" s="91">
+        <v>10</v>
+      </c>
+      <c r="F11" s="90">
+        <v>2032</v>
+      </c>
+      <c r="G11" s="91">
+        <v>12</v>
+      </c>
+      <c r="H11" s="90">
+        <v>1826</v>
+      </c>
+      <c r="I11" s="91">
+        <v>24</v>
+      </c>
+      <c r="J11" s="90">
+        <v>1307</v>
+      </c>
+      <c r="K11" s="91">
+        <v>28</v>
+      </c>
+      <c r="L11" s="90">
+        <v>2392</v>
+      </c>
+      <c r="M11" s="91">
+        <v>12</v>
+      </c>
+      <c r="N11" s="90">
+        <v>2392</v>
+      </c>
+      <c r="O11" s="91">
+        <v>12</v>
+      </c>
+      <c r="P11" s="90">
+        <v>2492</v>
+      </c>
+      <c r="Q11" s="91">
+        <v>8</v>
+      </c>
+      <c r="R11" s="90">
+        <v>14501</v>
+      </c>
+      <c r="S11" s="92">
+        <v>463.88</v>
+      </c>
+      <c r="T11" s="91">
+        <v>106</v>
+      </c>
+      <c r="U11" s="88">
+        <v>32427.88</v>
+      </c>
+      <c r="V11" s="93">
+        <v>31</v>
+      </c>
+      <c r="W11" s="90">
+        <v>1409</v>
+      </c>
+      <c r="X11" s="95">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A12" s="87" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" s="88">
+        <v>2741293</v>
+      </c>
+      <c r="C12" s="89"/>
+      <c r="D12" s="90">
+        <v>1909</v>
+      </c>
+      <c r="E12" s="91">
+        <v>16</v>
+      </c>
+      <c r="F12" s="90">
+        <v>2036</v>
+      </c>
+      <c r="G12" s="91">
+        <v>12</v>
+      </c>
+      <c r="H12" s="90">
+        <v>1178</v>
+      </c>
+      <c r="I12" s="91">
+        <v>13</v>
+      </c>
+      <c r="J12" s="93">
+        <v>983</v>
+      </c>
+      <c r="K12" s="91">
+        <v>11</v>
+      </c>
+      <c r="L12" s="90">
+        <v>2040</v>
+      </c>
+      <c r="M12" s="91">
+        <v>18</v>
+      </c>
+      <c r="N12" s="90">
+        <v>2041</v>
+      </c>
+      <c r="O12" s="91">
+        <v>14</v>
+      </c>
+      <c r="P12" s="90">
+        <v>2169</v>
+      </c>
+      <c r="Q12" s="91">
+        <v>14</v>
+      </c>
+      <c r="R12" s="90">
+        <v>12356</v>
+      </c>
+      <c r="S12" s="92">
+        <v>541.38</v>
+      </c>
+      <c r="T12" s="91">
+        <v>98</v>
+      </c>
+      <c r="U12" s="88">
+        <v>33141.589999999997</v>
+      </c>
+      <c r="V12" s="93">
+        <v>23</v>
+      </c>
+      <c r="W12" s="90">
+        <v>1126</v>
+      </c>
+      <c r="X12" s="95">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A13" s="87" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13" s="88">
+        <v>3522129</v>
+      </c>
+      <c r="C13" s="89"/>
+      <c r="D13" s="90">
+        <v>2470</v>
+      </c>
+      <c r="E13" s="91">
+        <v>25</v>
+      </c>
+      <c r="F13" s="90">
+        <v>2699</v>
+      </c>
+      <c r="G13" s="91">
+        <v>28</v>
+      </c>
+      <c r="H13" s="90">
+        <v>1432</v>
+      </c>
+      <c r="I13" s="91">
+        <v>30</v>
+      </c>
+      <c r="J13" s="90">
+        <v>1106</v>
+      </c>
+      <c r="K13" s="91">
+        <v>32</v>
+      </c>
+      <c r="L13" s="90">
+        <v>2346</v>
+      </c>
+      <c r="M13" s="91">
+        <v>34</v>
+      </c>
+      <c r="N13" s="90">
+        <v>2477</v>
+      </c>
+      <c r="O13" s="91">
+        <v>27</v>
+      </c>
+      <c r="P13" s="90">
+        <v>2338</v>
+      </c>
+      <c r="Q13" s="91">
+        <v>28</v>
+      </c>
+      <c r="R13" s="90">
+        <v>14868</v>
+      </c>
+      <c r="S13" s="92">
+        <v>461.58</v>
+      </c>
+      <c r="T13" s="91">
+        <v>204</v>
+      </c>
+      <c r="U13" s="88">
+        <v>49692.12</v>
+      </c>
+      <c r="V13" s="93">
+        <v>31</v>
+      </c>
+      <c r="W13" s="90">
+        <v>1724</v>
+      </c>
+      <c r="X13" s="95">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A14" s="87" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" s="88">
+        <v>5322536</v>
+      </c>
+      <c r="C14" s="89"/>
+      <c r="D14" s="90">
+        <v>2802</v>
+      </c>
+      <c r="E14" s="91">
+        <v>29</v>
+      </c>
+      <c r="F14" s="90">
+        <v>2924</v>
+      </c>
+      <c r="G14" s="91">
+        <v>39</v>
+      </c>
+      <c r="H14" s="90">
+        <v>1691</v>
+      </c>
+      <c r="I14" s="91">
         <v>38</v>
       </c>
-      <c r="Q1" s="98"/>
-      <c r="R1" s="97"/>
-      <c r="S1" s="97"/>
-      <c r="T1" s="97"/>
-      <c r="U1" s="97"/>
-      <c r="V1" s="97"/>
-      <c r="W1" s="97"/>
-      <c r="X1" s="97"/>
-    </row>
-    <row r="2" spans="1:24" ht="140.25" x14ac:dyDescent="0.25">
-      <c r="A2" s="99"/>
-      <c r="B2" s="100" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="100" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="100" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="101" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" s="100" t="s">
-        <v>9</v>
-      </c>
-      <c r="G2" s="101" t="s">
-        <v>10</v>
-      </c>
-      <c r="H2" s="100" t="s">
-        <v>9</v>
-      </c>
-      <c r="I2" s="101" t="s">
-        <v>10</v>
-      </c>
-      <c r="J2" s="100" t="s">
-        <v>9</v>
-      </c>
-      <c r="K2" s="101" t="s">
-        <v>10</v>
-      </c>
-      <c r="L2" s="100" t="s">
-        <v>9</v>
-      </c>
-      <c r="M2" s="101" t="s">
-        <v>10</v>
-      </c>
-      <c r="N2" s="100" t="s">
-        <v>9</v>
-      </c>
-      <c r="O2" s="101" t="s">
-        <v>10</v>
-      </c>
-      <c r="P2" s="100" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q2" s="101" t="s">
-        <v>10</v>
-      </c>
-      <c r="R2" s="100" t="s">
-        <v>9</v>
-      </c>
-      <c r="S2" s="100" t="s">
-        <v>11</v>
-      </c>
-      <c r="T2" s="101" t="s">
-        <v>12</v>
-      </c>
-      <c r="U2" s="100" t="s">
-        <v>13</v>
-      </c>
-      <c r="V2" s="100" t="s">
+      <c r="J14" s="90">
+        <v>1440</v>
+      </c>
+      <c r="K14" s="91">
+        <v>40</v>
+      </c>
+      <c r="L14" s="90">
+        <v>3049</v>
+      </c>
+      <c r="M14" s="91">
+        <v>28</v>
+      </c>
+      <c r="N14" s="90">
+        <v>3244</v>
+      </c>
+      <c r="O14" s="91">
+        <v>32</v>
+      </c>
+      <c r="P14" s="90">
+        <v>3327</v>
+      </c>
+      <c r="Q14" s="91">
+        <v>24</v>
+      </c>
+      <c r="R14" s="90">
+        <v>18477</v>
+      </c>
+      <c r="S14" s="92">
+        <v>546.12</v>
+      </c>
+      <c r="T14" s="91">
+        <v>230</v>
+      </c>
+      <c r="U14" s="88">
+        <v>53697.4</v>
+      </c>
+      <c r="V14" s="93">
+        <v>31</v>
+      </c>
+      <c r="W14" s="90">
+        <v>2193</v>
+      </c>
+      <c r="X14" s="95">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A15" s="87" t="s">
+        <v>30</v>
+      </c>
+      <c r="B15" s="88">
+        <v>4843037.5</v>
+      </c>
+      <c r="C15" s="89"/>
+      <c r="D15" s="90">
+        <v>3462</v>
+      </c>
+      <c r="E15" s="91">
+        <v>44</v>
+      </c>
+      <c r="F15" s="90">
+        <v>3594</v>
+      </c>
+      <c r="G15" s="91">
+        <v>35</v>
+      </c>
+      <c r="H15" s="90">
+        <v>2068</v>
+      </c>
+      <c r="I15" s="91">
         <v>14</v>
       </c>
-      <c r="W2" s="100" t="s">
-        <v>15</v>
-      </c>
-      <c r="X2" s="100" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A3" s="102" t="s">
-        <v>18</v>
-      </c>
-      <c r="B3" s="103">
-        <v>5038174</v>
-      </c>
-      <c r="C3" s="104"/>
-      <c r="D3" s="105">
-        <v>3686</v>
-      </c>
-      <c r="E3" s="106">
-        <v>28</v>
-      </c>
-      <c r="F3" s="105">
-        <v>3824</v>
-      </c>
-      <c r="G3" s="106">
-        <v>29</v>
-      </c>
-      <c r="H3" s="105">
-        <v>1332</v>
-      </c>
-      <c r="I3" s="106">
+      <c r="J15" s="90">
+        <v>1658</v>
+      </c>
+      <c r="K15" s="91">
+        <v>17</v>
+      </c>
+      <c r="L15" s="90">
+        <v>3733</v>
+      </c>
+      <c r="M15" s="91">
+        <v>36</v>
+      </c>
+      <c r="N15" s="90">
+        <v>4109</v>
+      </c>
+      <c r="O15" s="91">
         <v>26</v>
       </c>
-      <c r="J3" s="105">
-        <v>1034</v>
-      </c>
-      <c r="K3" s="106">
-        <v>23</v>
-      </c>
-      <c r="L3" s="105">
-        <v>3700</v>
-      </c>
-      <c r="M3" s="106">
+      <c r="P15" s="90">
+        <v>4014</v>
+      </c>
+      <c r="Q15" s="91">
+        <v>34</v>
+      </c>
+      <c r="R15" s="90">
+        <v>22638</v>
+      </c>
+      <c r="S15" s="92">
+        <v>502.16</v>
+      </c>
+      <c r="T15" s="91">
+        <v>206</v>
+      </c>
+      <c r="U15" s="88">
+        <v>49715.33</v>
+      </c>
+      <c r="V15" s="93">
         <v>31</v>
       </c>
-      <c r="N3" s="105">
-        <v>3972</v>
-      </c>
-      <c r="O3" s="106">
-        <v>25</v>
-      </c>
-      <c r="P3" s="105">
-        <v>3898</v>
-      </c>
-      <c r="Q3" s="106">
-        <v>16</v>
-      </c>
-      <c r="R3" s="105">
-        <v>21446</v>
-      </c>
-      <c r="S3" s="107">
-        <v>475.99</v>
-      </c>
-      <c r="T3" s="106">
-        <v>178</v>
-      </c>
-      <c r="U3" s="103">
-        <v>35158.99</v>
-      </c>
-      <c r="V3" s="108">
+      <c r="W15" s="90">
+        <v>2213</v>
+      </c>
+      <c r="X15" s="95">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A16" s="84" t="s">
         <v>31</v>
       </c>
-      <c r="W3" s="105">
-        <v>2262</v>
-      </c>
-      <c r="X3" s="109">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:24" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="102" t="s">
-        <v>19</v>
-      </c>
-      <c r="B4" s="103">
-        <v>11096936</v>
-      </c>
-      <c r="C4" s="104"/>
-      <c r="D4" s="105">
-        <v>7133</v>
-      </c>
-      <c r="E4" s="106">
-        <v>45</v>
-      </c>
-      <c r="F4" s="105">
-        <v>7356</v>
-      </c>
-      <c r="G4" s="106">
-        <v>44</v>
-      </c>
-      <c r="H4" s="105">
-        <v>5156</v>
-      </c>
-      <c r="I4" s="106">
-        <v>52</v>
-      </c>
-      <c r="J4" s="105">
-        <v>3522</v>
-      </c>
-      <c r="K4" s="106">
-        <v>68</v>
-      </c>
-      <c r="L4" s="105">
-        <v>7224</v>
-      </c>
-      <c r="M4" s="106">
-        <v>46</v>
-      </c>
-      <c r="N4" s="105">
-        <v>7310</v>
-      </c>
-      <c r="O4" s="106">
-        <v>52</v>
-      </c>
-      <c r="P4" s="105">
-        <v>7547</v>
-      </c>
-      <c r="Q4" s="106">
-        <v>37</v>
-      </c>
-      <c r="R4" s="105">
-        <v>45248</v>
-      </c>
-      <c r="S4" s="107">
-        <v>613.45000000000005</v>
-      </c>
-      <c r="T4" s="106">
-        <v>344</v>
-      </c>
-      <c r="U4" s="103">
-        <v>80618.62</v>
-      </c>
-      <c r="V4" s="108">
+      <c r="B16" s="96">
+        <v>73664757.299999997</v>
+      </c>
+      <c r="C16" s="97">
+        <v>60820763.640000001</v>
+      </c>
+      <c r="D16" s="98">
+        <v>43742</v>
+      </c>
+      <c r="E16" s="99">
+        <v>377</v>
+      </c>
+      <c r="F16" s="98">
+        <v>46497</v>
+      </c>
+      <c r="G16" s="99">
+        <v>345</v>
+      </c>
+      <c r="H16" s="98">
+        <v>27021</v>
+      </c>
+      <c r="I16" s="99">
+        <v>357</v>
+      </c>
+      <c r="J16" s="98">
+        <v>20586</v>
+      </c>
+      <c r="K16" s="99">
+        <v>435</v>
+      </c>
+      <c r="L16" s="98">
+        <v>47595</v>
+      </c>
+      <c r="M16" s="99">
+        <v>367</v>
+      </c>
+      <c r="N16" s="98">
+        <v>49492</v>
+      </c>
+      <c r="O16" s="99">
+        <v>361</v>
+      </c>
+      <c r="P16" s="98">
+        <v>49985</v>
+      </c>
+      <c r="Q16" s="99">
+        <v>308</v>
+      </c>
+      <c r="R16" s="98">
+        <v>284918</v>
+      </c>
+      <c r="S16" s="84"/>
+      <c r="T16" s="100">
+        <v>2550</v>
+      </c>
+      <c r="U16" s="97">
+        <v>695304.09</v>
+      </c>
+      <c r="V16" s="101">
         <v>31</v>
       </c>
-      <c r="W4" s="105">
-        <v>4034</v>
-      </c>
-      <c r="X4" s="109">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A5" s="102" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5" s="103">
-        <v>4581785</v>
-      </c>
-      <c r="C5" s="104"/>
-      <c r="D5" s="105">
-        <v>3187</v>
-      </c>
-      <c r="E5" s="106">
-        <v>46</v>
-      </c>
-      <c r="F5" s="105">
-        <v>3513</v>
-      </c>
-      <c r="G5" s="106">
-        <v>36</v>
-      </c>
-      <c r="H5" s="105">
-        <v>1970</v>
-      </c>
-      <c r="I5" s="106">
-        <v>14</v>
-      </c>
-      <c r="J5" s="105">
-        <v>1504</v>
-      </c>
-      <c r="K5" s="106">
-        <v>20</v>
-      </c>
-      <c r="L5" s="105">
-        <v>3655</v>
-      </c>
-      <c r="M5" s="106">
-        <v>37</v>
-      </c>
-      <c r="N5" s="105">
-        <v>3808</v>
-      </c>
-      <c r="O5" s="106">
-        <v>42</v>
-      </c>
-      <c r="P5" s="105">
-        <v>3819</v>
-      </c>
-      <c r="Q5" s="106">
-        <v>29</v>
-      </c>
-      <c r="R5" s="105">
-        <v>21456</v>
-      </c>
-      <c r="S5" s="107">
-        <v>483.54</v>
-      </c>
-      <c r="T5" s="106">
-        <v>224</v>
-      </c>
-      <c r="U5" s="103">
-        <v>46433.46</v>
-      </c>
-      <c r="V5" s="108">
-        <v>23</v>
-      </c>
-      <c r="W5" s="105">
-        <v>2092</v>
-      </c>
-      <c r="X5" s="110">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A6" s="102" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" s="103">
-        <v>14389439.800000001</v>
-      </c>
-      <c r="C6" s="104"/>
-      <c r="D6" s="105">
-        <v>5318</v>
-      </c>
-      <c r="E6" s="106">
-        <v>29</v>
-      </c>
-      <c r="F6" s="105">
-        <v>5573</v>
-      </c>
-      <c r="G6" s="106">
-        <v>33</v>
-      </c>
-      <c r="H6" s="105">
-        <v>2312</v>
-      </c>
-      <c r="I6" s="106">
-        <v>47</v>
-      </c>
-      <c r="J6" s="105">
-        <v>1713</v>
-      </c>
-      <c r="K6" s="106">
-        <v>72</v>
-      </c>
-      <c r="L6" s="105">
-        <v>5627</v>
-      </c>
-      <c r="M6" s="106">
-        <v>36</v>
-      </c>
-      <c r="N6" s="105">
-        <v>6155</v>
-      </c>
-      <c r="O6" s="106">
-        <v>36</v>
-      </c>
-      <c r="P6" s="105">
-        <v>6006</v>
-      </c>
-      <c r="Q6" s="106">
-        <v>36</v>
-      </c>
-      <c r="R6" s="105">
-        <v>32704</v>
-      </c>
-      <c r="S6" s="107">
-        <v>902.92</v>
-      </c>
-      <c r="T6" s="106">
-        <v>289</v>
-      </c>
-      <c r="U6" s="103">
-        <v>141505.99</v>
-      </c>
-      <c r="V6" s="108">
-        <v>31</v>
-      </c>
-      <c r="W6" s="105">
-        <v>3066</v>
-      </c>
-      <c r="X6" s="109">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A7" s="102" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7" s="103">
-        <v>3671460</v>
-      </c>
-      <c r="C7" s="104"/>
-      <c r="D7" s="105">
-        <v>2098</v>
-      </c>
-      <c r="E7" s="106">
-        <v>19</v>
-      </c>
-      <c r="F7" s="105">
-        <v>2203</v>
-      </c>
-      <c r="G7" s="106">
-        <v>13</v>
-      </c>
-      <c r="H7" s="105">
-        <v>1725</v>
-      </c>
-      <c r="I7" s="106">
-        <v>17</v>
-      </c>
-      <c r="J7" s="105">
-        <v>1403</v>
-      </c>
-      <c r="K7" s="106">
-        <v>22</v>
-      </c>
-      <c r="L7" s="105">
-        <v>2293</v>
-      </c>
-      <c r="M7" s="106">
-        <v>9</v>
-      </c>
-      <c r="N7" s="105">
-        <v>2440</v>
-      </c>
-      <c r="O7" s="106">
-        <v>12</v>
-      </c>
-      <c r="P7" s="105">
-        <v>2640</v>
-      </c>
-      <c r="Q7" s="106">
-        <v>18</v>
-      </c>
-      <c r="R7" s="105">
-        <v>14802</v>
-      </c>
-      <c r="S7" s="107">
-        <v>489.42</v>
-      </c>
-      <c r="T7" s="106">
-        <v>110</v>
-      </c>
-      <c r="U7" s="103">
-        <v>25524.49</v>
-      </c>
-      <c r="V7" s="108">
-        <v>31</v>
-      </c>
-      <c r="W7" s="105">
-        <v>1669</v>
-      </c>
-      <c r="X7" s="109">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:24" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="102" t="s">
-        <v>23</v>
-      </c>
-      <c r="B8" s="103">
-        <v>4922151</v>
-      </c>
-      <c r="C8" s="104"/>
-      <c r="D8" s="105">
-        <v>2847</v>
-      </c>
-      <c r="E8" s="106">
-        <v>21</v>
-      </c>
-      <c r="F8" s="105">
-        <v>2736</v>
-      </c>
-      <c r="G8" s="106">
-        <v>24</v>
-      </c>
-      <c r="H8" s="105">
-        <v>1691</v>
-      </c>
-      <c r="I8" s="106">
-        <v>27</v>
-      </c>
-      <c r="J8" s="105">
-        <v>1365</v>
-      </c>
-      <c r="K8" s="106">
-        <v>34</v>
-      </c>
-      <c r="L8" s="105">
-        <v>3086</v>
-      </c>
-      <c r="M8" s="106">
-        <v>26</v>
-      </c>
-      <c r="N8" s="105">
-        <v>3190</v>
-      </c>
-      <c r="O8" s="106">
-        <v>33</v>
-      </c>
-      <c r="P8" s="105">
-        <v>3417</v>
-      </c>
-      <c r="Q8" s="106">
-        <v>27</v>
-      </c>
-      <c r="R8" s="105">
-        <v>18332</v>
-      </c>
-      <c r="S8" s="107">
-        <v>467.1</v>
-      </c>
-      <c r="T8" s="106">
-        <v>192</v>
-      </c>
-      <c r="U8" s="103">
-        <v>53503.74</v>
-      </c>
-      <c r="V8" s="108">
-        <v>31</v>
-      </c>
-      <c r="W8" s="105">
-        <v>2045</v>
-      </c>
-      <c r="X8" s="110">
-        <v>1.1000000000000001</v>
-      </c>
-    </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A9" s="102" t="s">
-        <v>24</v>
-      </c>
-      <c r="B9" s="103">
-        <v>5861141</v>
-      </c>
-      <c r="C9" s="104"/>
-      <c r="D9" s="105">
-        <v>4102</v>
-      </c>
-      <c r="E9" s="106">
-        <v>25</v>
-      </c>
-      <c r="F9" s="105">
-        <v>4627</v>
-      </c>
-      <c r="G9" s="106">
-        <v>18</v>
-      </c>
-      <c r="H9" s="105">
-        <v>2756</v>
-      </c>
-      <c r="I9" s="106">
-        <v>40</v>
-      </c>
-      <c r="J9" s="105">
-        <v>2192</v>
-      </c>
-      <c r="K9" s="106">
-        <v>48</v>
-      </c>
-      <c r="L9" s="105">
-        <v>4794</v>
-      </c>
-      <c r="M9" s="106">
-        <v>21</v>
-      </c>
-      <c r="N9" s="105">
-        <v>5016</v>
-      </c>
-      <c r="O9" s="106">
-        <v>19</v>
-      </c>
-      <c r="P9" s="105">
-        <v>4878</v>
-      </c>
-      <c r="Q9" s="106">
-        <v>16</v>
-      </c>
-      <c r="R9" s="105">
-        <v>28365</v>
-      </c>
-      <c r="S9" s="107">
-        <v>511.89</v>
-      </c>
-      <c r="T9" s="106">
-        <v>187</v>
-      </c>
-      <c r="U9" s="103">
-        <v>48756.87</v>
-      </c>
-      <c r="V9" s="108">
-        <v>27</v>
-      </c>
-      <c r="W9" s="105">
-        <v>2582</v>
-      </c>
-      <c r="X9" s="109">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A10" s="102" t="s">
-        <v>25</v>
-      </c>
-      <c r="B10" s="103">
-        <v>4599446</v>
-      </c>
-      <c r="C10" s="104"/>
-      <c r="D10" s="105">
-        <v>2668</v>
-      </c>
-      <c r="E10" s="106">
-        <v>40</v>
-      </c>
-      <c r="F10" s="105">
-        <v>3380</v>
-      </c>
-      <c r="G10" s="106">
-        <v>22</v>
-      </c>
-      <c r="H10" s="105">
-        <v>1884</v>
-      </c>
-      <c r="I10" s="106">
-        <v>15</v>
-      </c>
-      <c r="J10" s="105">
-        <v>1359</v>
-      </c>
-      <c r="K10" s="106">
-        <v>20</v>
-      </c>
-      <c r="L10" s="105">
-        <v>3656</v>
-      </c>
-      <c r="M10" s="106">
-        <v>33</v>
-      </c>
-      <c r="N10" s="105">
-        <v>3338</v>
-      </c>
-      <c r="O10" s="106">
-        <v>31</v>
-      </c>
-      <c r="P10" s="105">
-        <v>3440</v>
-      </c>
-      <c r="Q10" s="106">
-        <v>21</v>
-      </c>
-      <c r="R10" s="105">
-        <v>19725</v>
-      </c>
-      <c r="S10" s="107">
-        <v>494.77</v>
-      </c>
-      <c r="T10" s="106">
-        <v>182</v>
-      </c>
-      <c r="U10" s="103">
-        <v>45127.59</v>
-      </c>
-      <c r="V10" s="108">
-        <v>23</v>
-      </c>
-      <c r="W10" s="105">
-        <v>2083</v>
-      </c>
-      <c r="X10" s="109">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:24" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A11" s="102" t="s">
-        <v>26</v>
-      </c>
-      <c r="B11" s="103">
-        <v>3075229</v>
-      </c>
-      <c r="C11" s="104"/>
-      <c r="D11" s="105">
-        <v>2060</v>
-      </c>
-      <c r="E11" s="106">
-        <v>10</v>
-      </c>
-      <c r="F11" s="105">
-        <v>2032</v>
-      </c>
-      <c r="G11" s="106">
-        <v>12</v>
-      </c>
-      <c r="H11" s="105">
-        <v>1826</v>
-      </c>
-      <c r="I11" s="106">
-        <v>24</v>
-      </c>
-      <c r="J11" s="105">
-        <v>1307</v>
-      </c>
-      <c r="K11" s="106">
-        <v>28</v>
-      </c>
-      <c r="L11" s="105">
-        <v>2392</v>
-      </c>
-      <c r="M11" s="106">
-        <v>12</v>
-      </c>
-      <c r="N11" s="105">
-        <v>2392</v>
-      </c>
-      <c r="O11" s="106">
-        <v>12</v>
-      </c>
-      <c r="P11" s="105">
-        <v>2492</v>
-      </c>
-      <c r="Q11" s="106">
-        <v>8</v>
-      </c>
-      <c r="R11" s="105">
-        <v>14501</v>
-      </c>
-      <c r="S11" s="107">
-        <v>463.88</v>
-      </c>
-      <c r="T11" s="106">
-        <v>106</v>
-      </c>
-      <c r="U11" s="103">
-        <v>32427.88</v>
-      </c>
-      <c r="V11" s="108">
-        <v>31</v>
-      </c>
-      <c r="W11" s="105">
-        <v>1409</v>
-      </c>
-      <c r="X11" s="110">
-        <v>1.1000000000000001</v>
-      </c>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A12" s="102" t="s">
-        <v>27</v>
-      </c>
-      <c r="B12" s="103">
-        <v>2741293</v>
-      </c>
-      <c r="C12" s="104"/>
-      <c r="D12" s="105">
-        <v>1909</v>
-      </c>
-      <c r="E12" s="106">
-        <v>16</v>
-      </c>
-      <c r="F12" s="105">
-        <v>2036</v>
-      </c>
-      <c r="G12" s="106">
-        <v>12</v>
-      </c>
-      <c r="H12" s="105">
-        <v>1178</v>
-      </c>
-      <c r="I12" s="106">
-        <v>13</v>
-      </c>
-      <c r="J12" s="108">
-        <v>983</v>
-      </c>
-      <c r="K12" s="106">
-        <v>11</v>
-      </c>
-      <c r="L12" s="105">
-        <v>2040</v>
-      </c>
-      <c r="M12" s="106">
-        <v>18</v>
-      </c>
-      <c r="N12" s="105">
-        <v>2041</v>
-      </c>
-      <c r="O12" s="106">
-        <v>14</v>
-      </c>
-      <c r="P12" s="105">
-        <v>2169</v>
-      </c>
-      <c r="Q12" s="106">
-        <v>14</v>
-      </c>
-      <c r="R12" s="105">
-        <v>12356</v>
-      </c>
-      <c r="S12" s="107">
-        <v>541.38</v>
-      </c>
-      <c r="T12" s="106">
-        <v>98</v>
-      </c>
-      <c r="U12" s="103">
-        <v>33141.589999999997</v>
-      </c>
-      <c r="V12" s="108">
-        <v>23</v>
-      </c>
-      <c r="W12" s="105">
-        <v>1126</v>
-      </c>
-      <c r="X12" s="110">
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A13" s="102" t="s">
-        <v>28</v>
-      </c>
-      <c r="B13" s="103">
-        <v>3522129</v>
-      </c>
-      <c r="C13" s="104"/>
-      <c r="D13" s="105">
-        <v>2470</v>
-      </c>
-      <c r="E13" s="106">
-        <v>25</v>
-      </c>
-      <c r="F13" s="105">
-        <v>2699</v>
-      </c>
-      <c r="G13" s="106">
-        <v>28</v>
-      </c>
-      <c r="H13" s="105">
-        <v>1432</v>
-      </c>
-      <c r="I13" s="106">
-        <v>30</v>
-      </c>
-      <c r="J13" s="105">
-        <v>1106</v>
-      </c>
-      <c r="K13" s="106">
-        <v>32</v>
-      </c>
-      <c r="L13" s="105">
-        <v>2346</v>
-      </c>
-      <c r="M13" s="106">
-        <v>34</v>
-      </c>
-      <c r="N13" s="105">
-        <v>2477</v>
-      </c>
-      <c r="O13" s="106">
-        <v>27</v>
-      </c>
-      <c r="P13" s="105">
-        <v>2338</v>
-      </c>
-      <c r="Q13" s="106">
-        <v>28</v>
-      </c>
-      <c r="R13" s="105">
-        <v>14868</v>
-      </c>
-      <c r="S13" s="107">
-        <v>461.58</v>
-      </c>
-      <c r="T13" s="106">
-        <v>204</v>
-      </c>
-      <c r="U13" s="103">
-        <v>49692.12</v>
-      </c>
-      <c r="V13" s="108">
-        <v>31</v>
-      </c>
-      <c r="W13" s="105">
-        <v>1724</v>
-      </c>
-      <c r="X13" s="110">
-        <v>1.4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A14" s="102" t="s">
-        <v>29</v>
-      </c>
-      <c r="B14" s="103">
-        <v>5322536</v>
-      </c>
-      <c r="C14" s="104"/>
-      <c r="D14" s="105">
-        <v>2802</v>
-      </c>
-      <c r="E14" s="106">
-        <v>29</v>
-      </c>
-      <c r="F14" s="105">
-        <v>2924</v>
-      </c>
-      <c r="G14" s="106">
-        <v>39</v>
-      </c>
-      <c r="H14" s="105">
-        <v>1691</v>
-      </c>
-      <c r="I14" s="106">
-        <v>38</v>
-      </c>
-      <c r="J14" s="105">
-        <v>1440</v>
-      </c>
-      <c r="K14" s="106">
-        <v>40</v>
-      </c>
-      <c r="L14" s="105">
-        <v>3049</v>
-      </c>
-      <c r="M14" s="106">
-        <v>28</v>
-      </c>
-      <c r="N14" s="105">
-        <v>3244</v>
-      </c>
-      <c r="O14" s="106">
-        <v>32</v>
-      </c>
-      <c r="P14" s="105">
-        <v>3327</v>
-      </c>
-      <c r="Q14" s="106">
-        <v>24</v>
-      </c>
-      <c r="R14" s="105">
-        <v>18477</v>
-      </c>
-      <c r="S14" s="107">
-        <v>546.12</v>
-      </c>
-      <c r="T14" s="106">
-        <v>230</v>
-      </c>
-      <c r="U14" s="103">
-        <v>53697.4</v>
-      </c>
-      <c r="V14" s="108">
-        <v>31</v>
-      </c>
-      <c r="W14" s="105">
-        <v>2193</v>
-      </c>
-      <c r="X14" s="110">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A15" s="102" t="s">
-        <v>30</v>
-      </c>
-      <c r="B15" s="103">
-        <v>4843037.5</v>
-      </c>
-      <c r="C15" s="104"/>
-      <c r="D15" s="105">
-        <v>3462</v>
-      </c>
-      <c r="E15" s="106">
-        <v>44</v>
-      </c>
-      <c r="F15" s="105">
-        <v>3594</v>
-      </c>
-      <c r="G15" s="106">
-        <v>35</v>
-      </c>
-      <c r="H15" s="105">
-        <v>2068</v>
-      </c>
-      <c r="I15" s="106">
-        <v>14</v>
-      </c>
-      <c r="J15" s="105">
-        <v>1658</v>
-      </c>
-      <c r="K15" s="106">
-        <v>17</v>
-      </c>
-      <c r="L15" s="105">
-        <v>3733</v>
-      </c>
-      <c r="M15" s="106">
-        <v>36</v>
-      </c>
-      <c r="N15" s="105">
-        <v>4109</v>
-      </c>
-      <c r="O15" s="106">
-        <v>26</v>
-      </c>
-      <c r="P15" s="105">
-        <v>4014</v>
-      </c>
-      <c r="Q15" s="106">
-        <v>34</v>
-      </c>
-      <c r="R15" s="105">
-        <v>22638</v>
-      </c>
-      <c r="S15" s="107">
-        <v>502.16</v>
-      </c>
-      <c r="T15" s="106">
-        <v>206</v>
-      </c>
-      <c r="U15" s="103">
-        <v>49715.33</v>
-      </c>
-      <c r="V15" s="108">
-        <v>31</v>
-      </c>
-      <c r="W15" s="105">
-        <v>2213</v>
-      </c>
-      <c r="X15" s="110">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A16" s="97" t="s">
-        <v>31</v>
-      </c>
-      <c r="B16" s="111">
-        <v>73664757.299999997</v>
-      </c>
-      <c r="C16" s="112">
-        <v>60820763.640000001</v>
-      </c>
-      <c r="D16" s="113">
-        <v>43742</v>
-      </c>
-      <c r="E16" s="114">
-        <v>377</v>
-      </c>
-      <c r="F16" s="113">
-        <v>46497</v>
-      </c>
-      <c r="G16" s="114">
-        <v>345</v>
-      </c>
-      <c r="H16" s="113">
-        <v>27021</v>
-      </c>
-      <c r="I16" s="114">
-        <v>357</v>
-      </c>
-      <c r="J16" s="113">
-        <v>20586</v>
-      </c>
-      <c r="K16" s="114">
-        <v>435</v>
-      </c>
-      <c r="L16" s="113">
-        <v>47595</v>
-      </c>
-      <c r="M16" s="114">
-        <v>367</v>
-      </c>
-      <c r="N16" s="113">
-        <v>49492</v>
-      </c>
-      <c r="O16" s="114">
-        <v>361</v>
-      </c>
-      <c r="P16" s="113">
-        <v>49985</v>
-      </c>
-      <c r="Q16" s="114">
-        <v>308</v>
-      </c>
-      <c r="R16" s="113">
-        <v>284918</v>
-      </c>
-      <c r="S16" s="97"/>
-      <c r="T16" s="115">
-        <v>2550</v>
-      </c>
-      <c r="U16" s="112">
-        <v>695304.09</v>
-      </c>
-      <c r="V16" s="116">
-        <v>31</v>
-      </c>
-      <c r="W16" s="113">
+      <c r="W16" s="98">
         <v>28498</v>
       </c>
-      <c r="X16" s="117">
+      <c r="X16" s="102">
         <v>0.9</v>
       </c>
     </row>
